--- a/EssilorLuxottica Projects/LUX - 7.0 - Report SAP Bank Files/Data/Input/Report_Template.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.0 - Report SAP Bank Files/Data/Input/Report_Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAADF98C-6159-483B-9D2C-FB275CCF423C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983A912-5607-481C-A274-C9A885DC4DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -135,6 +135,30 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -432,7 +456,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,15 +487,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E51:E1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Failure Message">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Failure Message">
       <formula>NOT(ISERROR(SEARCH("Failure Message",E51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",C1)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Successful">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Successful">
       <formula>NOT(ISERROR(SEARCH("Successful",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
